--- a/de.bund.bfr.knime.fsklab.nodes/resources/vocabularies/Method tool to collect data.xlsx
+++ b/de.bund.bfr.knime.fsklab.nodes/resources/vocabularies/Method tool to collect data.xlsx
@@ -26,10 +26,28 @@
     <t>Comment</t>
   </si>
   <si>
+    <t>24-hour recall interview</t>
+  </si>
+  <si>
+    <t>Method. Tool to collect data_3</t>
+  </si>
+  <si>
+    <t>eating outside questionnaire</t>
+  </si>
+  <si>
+    <t>Method. Tool to collect data_6</t>
+  </si>
+  <si>
     <t>food diaries</t>
   </si>
   <si>
     <t>Method. Tool to collect data_1</t>
+  </si>
+  <si>
+    <t>food propensy questionnaire</t>
+  </si>
+  <si>
+    <t>Method. Tool to collect data_4</t>
   </si>
   <si>
     <t>interview</t>
@@ -38,28 +56,10 @@
     <t>Method. Tool to collect data_2</t>
   </si>
   <si>
-    <t>24-hour recall interview</t>
+    <t>Other experimental studies</t>
   </si>
   <si>
-    <t>Method. Tool to collect data_3</t>
-  </si>
-  <si>
-    <t>food propensy questionnaire</t>
-  </si>
-  <si>
-    <t>Method. Tool to collect data_4</t>
-  </si>
-  <si>
-    <t>portion size measurement aids</t>
-  </si>
-  <si>
-    <t>Method. Tool to collect data_5</t>
-  </si>
-  <si>
-    <t>eating outside questionnaire</t>
-  </si>
-  <si>
-    <t>Method. Tool to collect data_6</t>
+    <t>Method. Tool to collect data_8</t>
   </si>
   <si>
     <t>Other observational studies</t>
@@ -68,10 +68,10 @@
     <t>Method. Tool to collect data_7</t>
   </si>
   <si>
-    <t>Other experimental studies</t>
+    <t>portion size measurement aids</t>
   </si>
   <si>
-    <t>Method. Tool to collect data_8</t>
+    <t>Method. Tool to collect data_5</t>
   </si>
 </sst>
 </file>
